--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957DB82-EA18-4B71-9190-048C69A88F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -304,90 +306,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByBatchNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByFileCodeFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.PDF
 2.EXCEL
 3.TXT
 4.DBF
 5.CSV
-6.套印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo</t>
-  </si>
-  <si>
-    <t>批號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByBatchNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByFileCodeFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FileCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrNo</t>
+6.套印
+7.任意檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -643,8 +646,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,6 +738,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -770,6 +790,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -945,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1058,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
@@ -1096,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
@@ -1150,13 +1187,13 @@
       <c r="F12" s="24"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>71</v>
@@ -1169,7 +1206,7 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1240,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>44</v>
@@ -1260,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -1302,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>68</v>
@@ -1342,16 +1379,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="7"/>
@@ -1362,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>67</v>
@@ -1378,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -1441,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1487,7 +1524,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,32 +1532,32 @@
         <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2957DB82-EA18-4B71-9190-048C69A88F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA1B90C-F7D4-44E4-A01F-47CF41CBA943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -384,6 +384,18 @@
 5.CSV
 6.套印
 7.任意檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileZip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓縮檔案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -983,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1161,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <f t="shared" ref="A11:A26" si="0">A10+1</f>
+        <f t="shared" ref="A11:A27" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1277,17 +1289,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>43</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="7"/>
     </row>
@@ -1297,21 +1307,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
@@ -1319,19 +1327,21 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
@@ -1339,16 +1349,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="7"/>
@@ -1359,10 +1369,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>49</v>
@@ -1379,16 +1389,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="7"/>
@@ -1398,66 +1408,86 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>67</v>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E25" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D27" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E27" s="24">
         <v>6</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA1B90C-F7D4-44E4-A01F-47CF41CBA943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC7A0D-F457-452E-8C86-DAAA2D51FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="708" windowWidth="22872" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1161,9 @@
         <v>20</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC7A0D-F457-452E-8C86-DAAA2D51FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="708" windowWidth="22872" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -125,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>輸出檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FileNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -138,10 +123,6 @@
   </si>
   <si>
     <t>檔案日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檔案編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -399,14 +380,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>產表環境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceEnv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O:Online環境
+D:Day環境
+M:Month環境
+H:History環境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-25 Wei 新增欄位
+from Lai : 各環境產表都寫回Online,
+但是各環境在LC009查詢時,只能查到各自環境產製的報表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>會計日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案代號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報表輸出檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -482,7 +496,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,7 +604,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -596,13 +616,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -614,9 +634,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -629,22 +646,22 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,8 +679,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,23 +771,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -806,23 +806,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,460 +981,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="25" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="12"/>
+    <col min="1" max="1" width="5.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.77734375" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="24.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <f t="shared" ref="A11:A27" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="24"/>
+      <c r="E18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="24"/>
+      <c r="E20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="21"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -1459,12 +1444,12 @@
       <c r="D25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1477,10 +1462,10 @@
       <c r="D26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1491,10 +1476,33 @@
         <v>17</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="24">
+        <v>94</v>
+      </c>
+      <c r="E27" s="21">
         <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1543,57 +1551,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
